--- a/biology/Médecine/Optique_(homonymie)/Optique_(homonymie).xlsx
+++ b/biology/Médecine/Optique_(homonymie)/Optique_(homonymie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Sur les autres projets Wikimedia :
@@ -516,13 +528,52 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Astronomie
-L'astronomie optique est l'astronomie restreinte à l'observation de la lumière visible.
+          <t>Astronomie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'astronomie optique est l'astronomie restreinte à l'observation de la lumière visible.
 La contrepartie optique d'un objet d'abord découvert dans un domaine de longueurs d'onde autre que le visible (rayons gamma, rayons X ou domaine radio), est son observation ultérieure dans le domaine visible ou infrarouge.
 Une double optique (ou étoile double optique) est un couple d'étoiles proches dans le ciel mais en réalité séparées par une grande distance, ce ne sont donc pas des vraies étoiles binaires liées gravitationnellement.
-Un pulsar optique est un pulsar qui peut être détecté dans le spectre visible.
-Biologie et médecine
-Nom
+Un pulsar optique est un pulsar qui peut être détecté dans le spectre visible.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Sciences et techniques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Biologie et médecine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Nom
 L'optique physiologique est la science de la vision. Elle fait appel à l'anatomie (disposition matérielle de l'œil), la physiologie (fonctionnement de l’œil, la médecine (maladies oculaires), l'optique physique (propagation des rayons lumineux dans le globe oculaire), la chimie (étude des colorants et conversion de l'énergie lumineuse en influx nerveux), la psychologie expérimentale (étude globale de l'appareil visuel) et la psychologie cognitive (éducation de la capacité à voir).
 Une illusion d'optique est une perception visuelle en contradiction avec la réalité, qu'on peut connaître par ailleurs.
 Adjectif
@@ -539,14 +590,82 @@
 la névrite optique est une forme particulière de neuropathie (neuropathie optique rétrobulbaire) ;
 la papille optique est la partie de la rétine où s'insèrent le nerf optique qui relaie les influx nerveux de la couche plexiforme interne jusqu'au cortex cérébral, ainsi que les vaisseaux sanguins arrivant à l'œil et le quittant ;
 une prescription optique est une ordonnance rédigée par un professionnel de la vision (ophtalmologiste ou optométriste), qui indique la valeur de tous les paramètres que le prescripteur juge nécessaires pour la réalisation d'un équipement en verres correcteurs pour un patient ;
-la radiation optique est un faisceau d'axones issus des neurones de projection du corps géniculé latéral appartenant au thalamus et se terminant au niveau de la scissure calcarine du cortex occipital ipsilatéral ; elle contribue à la transmission de l'information visuelle consciente ;
-Chimie
-L'activité optique d'un milieu est l'angle dont il fait tourner le vecteur de polarisation d'un faisceau lumineux qui le traverse.
+la radiation optique est un faisceau d'axones issus des neurones de projection du corps géniculé latéral appartenant au thalamus et se terminant au niveau de la scissure calcarine du cortex occipital ipsilatéral ; elle contribue à la transmission de l'information visuelle consciente ;</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Sciences et techniques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Chimie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'activité optique d'un milieu est l'angle dont il fait tourner le vecteur de polarisation d'un faisceau lumineux qui le traverse.
 Un azurant optique est une molécule qui absorbe les rayonnements électromagnétiques ultraviolets entre 300 et 400 nm de longueur d'onde et réémet ensuite cette énergie par fluorescence dans le visible entre 400 et 500 nm, soit les longueurs d'onde entre le bleu-violet et le bleu-vert avec un maximum dans le bleu.
 L'isomérie optique est une propriété des molécules stéréoisomères images non superposables l'une de l'autre dans un miroir plan.
-La pureté optique d'un mélange d'énantiomères est le rapport de son activité optique à celle de l'énantiomère de plus grande activité, pur.
-Informatique et technologies
-Un crayon optique est un stylet informatique permettant de dessiner ou de sélectionner des options directement sur les écrans à tubes cathodiques.
+La pureté optique d'un mélange d'énantiomères est le rapport de son activité optique à celle de l'énantiomère de plus grande activité, pur.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Sciences et techniques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Informatique et technologies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Un crayon optique est un stylet informatique permettant de dessiner ou de sélectionner des options directement sur les écrans à tubes cathodiques.
 La communication optique désigne les télécommunications utilisant des moyens, matériaux ou instruments d'optique.
 La compensation optique est une technique qui permet de rendre fixe, donc perceptible à l'œil, une image projetée à l'aide d'un système optique alors que la source de cette image est en déplacement continu (par rotation ou par défilement).
 La conception optique est un domaine de l'ingénierie optique dont le but est de créer, optimiser et produire des systèmes optiques, tels que des objectifs, des viseurs, des télescopes, des microscopes, etc.
@@ -563,11 +682,79 @@
 La reconnaissance optique de caractères est un procédé informatique pour traduire en fichiers de texte des images de textes imprimés ou dactylographiés.
 Une roue optique codée est une roue équipée d'un dispositif électronique permettant de mesurer sa rotation.
 Le stockage optique 3-D est un stockage d'information optique dans lequel les informations peuvent être enregistrées et lues avec trois dimensions de résolution optique (par opposition aux résolutions bidimensionnelles offertes, par exemple, par le disque compact).
-La tomographie optique diffuse est une technique d'imagerie tomographique basée sur la diffusion de la lumière dans un corps.
-Météorologie
-La portée optique météorologique est la longueur du trajet que doit effectuer dans l'atmosphère un faisceau de rayons lumineux parallèles, émanant d'une lampe à incandescence à une température de couleur de 2 700 K, pour que l’intensité du flux lumineux soit réduite à 0,05 fois sa valeur originale.
-Physique
-Nom
+La tomographie optique diffuse est une technique d'imagerie tomographique basée sur la diffusion de la lumière dans un corps.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Sciences et techniques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Météorologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La portée optique météorologique est la longueur du trajet que doit effectuer dans l'atmosphère un faisceau de rayons lumineux parallèles, émanant d'une lampe à incandescence à une température de couleur de 2 700 K, pour que l’intensité du flux lumineux soit réduite à 0,05 fois sa valeur originale.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Sciences et techniques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Physique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nom
 L'optique est une branche de la physique qui s'intéresse à tous les aspects de la lumière. Elle rassemble diverses disciplines plus spécialisées :
 l'optique géométrique s'appuie sur le modèle du rayon lumineux et permet notamment la construction géométrique d'images. Correcte quand tous les éléments utilisés sont de grande taille par rapport à la longueur d'onde de la lumière, elle est particulièrement adaptée à l'étude des systèmes dioptriques et catadioptriques ;
 l'optique impulsionnelle traite des interactions entre les impulsions de lumière (notamment produites par les lasers) et la matière. Les impulsions femtoseconde, notamment, ont la particularité d'avoir un spectre en fréquence très large, de sorte que leurs propriétés de propagation sont différentes de celles des impulsions plus longues utilisées ordinairement ;
@@ -638,41 +825,114 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Optique_(homonymie)</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Optique_(homonymie)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Culture et société</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arts et spectacles
-L'art optique correspond à certaines pratiques et recherches artistiques faites à partir des années 1960, et qui exploitent la faillibilité de l'œil à travers des illusions ou des jeux optiques.
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Arts et spectacles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>L'art optique correspond à certaines pratiques et recherches artistiques faites à partir des années 1960, et qui exploitent la faillibilité de l'œil à travers des illusions ou des jeux optiques.
 Le théâtre optique est une invention de Charles-Émile Reynaud, brevetée en 1888, qui réunit les techniques de l'analyse du mouvement et celle de la projection à l'aide d'une lanterne magique.
 Le travelling optique est un effet cinématographique obtenu par une modification continue de la distance focale de l'objectif au cours de la prise de vues.
-Les vues d'optique sont des gravures qui, si on les regarde à travers un appareil spécifique appelé zograscope (ou boîte d'optique) donnent l'illusion d'un relief et d'une perspective accentuée.
-Entreprise
-Optique et précision de Levallois est un fabricant français d'instruments d'optique (1919-1964).
-Famille
-Un jouet optique est un objet qui utilise l'illusion optique ; manipulable, il crée l'illusion du mouvement ou du relief.
+Les vues d'optique sont des gravures qui, si on les regarde à travers un appareil spécifique appelé zograscope (ou boîte d'optique) donnent l'illusion d'un relief et d'une perspective accentuée.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Culture et société</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Entreprise</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Optique et précision de Levallois est un fabricant français d'instruments d'optique (1919-1964).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Optique_(homonymie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Culture et société</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un jouet optique est un objet qui utilise l'illusion optique ; manipulable, il crée l'illusion du mouvement ou du relief.
  Portail de la physique   Portail de la biologie   Portail de la médecine   Portail des technologies                  </t>
         </is>
       </c>
